--- a/data/trans_dic/P02E$ssociales-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Provincia-trans_dic.xlsx
@@ -686,14 +686,14 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009973928403488598</v>
+        <v>0.01030835450285163</v>
       </c>
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01112422084727603</v>
+        <v>0.01091418358129345</v>
       </c>
     </row>
     <row r="6">
@@ -705,24 +705,24 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.04532643282345998</v>
+        <v>0.06822620646935612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07097035594070156</v>
+        <v>0.0641350647564643</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.03652349929926099</v>
+        <v>0.0390530286883523</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08953873410872076</v>
+        <v>0.09314210997834686</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.03054504047379249</v>
+        <v>0.03040717861280096</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06569401886632757</v>
+        <v>0.0685240029628268</v>
       </c>
     </row>
     <row r="7">
@@ -776,23 +776,23 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01264008699035699</v>
+        <v>0.01257881115015386</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00475346994579341</v>
+        <v>0.004768558379656342</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006117470999706686</v>
+        <v>0.005953470278749155</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004755059954922973</v>
+        <v>0.004736934969757862</v>
       </c>
     </row>
     <row r="9">
@@ -804,26 +804,26 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04948165167268978</v>
+        <v>0.04971718602805667</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1042655458903942</v>
+        <v>0.1081418474236567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0471471168777278</v>
+        <v>0.04528536077935575</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04291276071250541</v>
+        <v>0.04201483619656311</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.03020088338698396</v>
+        <v>0.03020648670118066</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03487673875993497</v>
+        <v>0.0350335022944791</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04048783869686683</v>
+        <v>0.04107439402469487</v>
       </c>
     </row>
     <row r="10">
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09322886271632266</v>
+        <v>0.09251138780945019</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04949453693738671</v>
+        <v>0.04592040488877914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0778500216843567</v>
+        <v>0.07787285563744011</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.03340593186478693</v>
+        <v>0.04321955672568973</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.03746750662466416</v>
+        <v>0.03686492685773739</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02616078207316637</v>
+        <v>0.02988864120466842</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0396015371816404</v>
+        <v>0.02978138736643773</v>
       </c>
     </row>
     <row r="13">
@@ -975,24 +975,24 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.009465770260133188</v>
+        <v>0.009342362822188954</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>0.005580257153205307</v>
+        <v>0.005932410145698916</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.01095731354497447</v>
+        <v>0.01154889556778336</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0</v>
+        <v>0.005187606827327816</v>
       </c>
     </row>
     <row r="15">
@@ -1004,24 +1004,24 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.0916284051734115</v>
+        <v>0.08421737094809487</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08744223888444413</v>
+        <v>0.1105928509198406</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.05371502620035411</v>
+        <v>0.05122900073302485</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06118748174322864</v>
+        <v>0.06076521730521844</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.0528407206278732</v>
+        <v>0.05228557548740245</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04515515876325307</v>
+        <v>0.04623121231691222</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01044991998279356</v>
+        <v>0.0104223398387082</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01279832825625587</v>
+        <v>0.01287280792147561</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
@@ -1103,26 +1103,26 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.1112940711821202</v>
+        <v>0.1164085673251326</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.1161939129806706</v>
+        <v>0.1224675363843857</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08954132143683369</v>
+        <v>0.08809218305257586</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05768443384157939</v>
+        <v>0.05622620537158892</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08297568898520441</v>
+        <v>0.07662285564909692</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07491882951226939</v>
+        <v>0.07042670173627828</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03074754298461187</v>
+        <v>0.03682470037673633</v>
       </c>
     </row>
     <row r="19">
@@ -1178,14 +1178,14 @@
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.009119838756275299</v>
+        <v>0.009113263604750446</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.005220288860348529</v>
+        <v>0.005162647544050055</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1201,21 +1201,21 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.1276470178867719</v>
+        <v>0.1107966082852729</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.09072774108960166</v>
+        <v>0.08187583463044028</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1009830200497405</v>
+        <v>0.1031871223013337</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.0478751522594981</v>
+        <v>0.05163786102825485</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06468298130080602</v>
+        <v>0.06336544331785002</v>
       </c>
     </row>
     <row r="22">
@@ -1291,20 +1291,20 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.0205768419599036</v>
+        <v>0.01922649391661848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0656640480014969</v>
+        <v>0.05432388878862054</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.009976826160679415</v>
+        <v>0.01088474036110355</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02530843321782764</v>
+        <v>0.02382370435648554</v>
       </c>
     </row>
     <row r="25">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.009332244684138631</v>
+        <v>0.009172322149529248</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0</v>
+        <v>0.003008376963108786</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.006753636914050501</v>
+        <v>0.005843448390565459</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.001576770209556958</v>
+        <v>0.001573119492149845</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.05350289119215824</v>
+        <v>0.05177475462419662</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0194770531808187</v>
+        <v>0.01694128582954178</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02922367755809858</v>
+        <v>0.02685304172615594</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02447301799421708</v>
+        <v>0.03025849753380538</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02778548959147624</v>
+        <v>0.02585168650790259</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01595875777887041</v>
+        <v>0.01600658158051974</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02802775393463957</v>
+        <v>0.02757047433774632</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01835582951957101</v>
+        <v>0.01687485223724004</v>
       </c>
     </row>
     <row r="28">
@@ -1462,28 +1462,28 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.007573964417279927</v>
+        <v>0.006727591635546009</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.001761268741060632</v>
+        <v>0.001899991984689383</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.008026581859252769</v>
+        <v>0.007915360548296838</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.004694900021760999</v>
+        <v>0.004633331194513062</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.001755438458592013</v>
+        <v>0.001767889432909527</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.010243524298442</v>
+        <v>0.01010954617822022</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.006802257505784819</v>
+        <v>0.006960423582459529</v>
       </c>
     </row>
     <row r="30">
@@ -1494,31 +1494,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02604876820563551</v>
+        <v>0.02361525492487175</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.009851092737194212</v>
+        <v>0.01060847905840618</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02013321940018996</v>
+        <v>0.01975548935035923</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01688407625455432</v>
+        <v>0.0161882239487185</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.007870836259469298</v>
+        <v>0.008140777059497591</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01928663693789436</v>
+        <v>0.01915232417262015</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01722464321052957</v>
+        <v>0.01689773542554711</v>
       </c>
     </row>
     <row r="31">
@@ -1762,14 +1762,14 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1920</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="7">
@@ -1781,24 +1781,24 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4030</v>
+        <v>6066</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5241</v>
+        <v>4736</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>5149</v>
+        <v>5505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8841</v>
+        <v>9197</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>7022</v>
+        <v>6990</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11338</v>
+        <v>11827</v>
       </c>
     </row>
     <row r="8">
@@ -1887,23 +1887,23 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2090</v>
+        <v>2034</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="11">
@@ -1915,26 +1915,26 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6403</v>
+        <v>6434</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8333</v>
+        <v>8643</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6504</v>
+        <v>6247</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9109</v>
+        <v>8918</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6251</v>
+        <v>6252</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>11916</v>
+        <v>11970</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8665</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="12">
@@ -2050,27 +2050,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6491</v>
+        <v>6441</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4627</v>
+        <v>4293</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4661</v>
+        <v>4663</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>4669</v>
+        <v>6041</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>6550</v>
+        <v>6445</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6102</v>
+        <v>6972</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5550</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="16">
@@ -2156,24 +2156,24 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>1009</v>
+        <v>1073</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>3200</v>
+        <v>3373</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>0</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19">
@@ -2185,24 +2185,24 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>10189</v>
+        <v>9364</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5177</v>
+        <v>6548</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>9714</v>
+        <v>9265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7252</v>
+        <v>7202</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>15432</v>
+        <v>15270</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8025</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="20">
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1886</v>
+        <v>1897</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
@@ -2319,26 +2319,26 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6114</v>
+        <v>6395</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>6153</v>
+        <v>6485</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8277</v>
+        <v>8143</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>4842</v>
+        <v>4720</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6965</v>
+        <v>6432</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11041</v>
+        <v>10379</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4808</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="24">
@@ -2429,14 +2429,14 @@
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2452,21 +2452,21 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>8012</v>
+        <v>6954</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>9994</v>
+        <v>9019</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7063</v>
+        <v>7217</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>9202</v>
+        <v>9925</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8584</v>
+        <v>8409</v>
       </c>
     </row>
     <row r="28">
@@ -2577,20 +2577,20 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4418</v>
+        <v>4129</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8042</v>
+        <v>6653</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>4972</v>
+        <v>5425</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>8256</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="32">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>1961</v>
+        <v>1927</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0</v>
+        <v>1073</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3829</v>
+        <v>3313</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35">
@@ -2709,28 +2709,28 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>11240</v>
+        <v>10877</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4405</v>
+        <v>3831</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>5757</v>
+        <v>5290</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8732</v>
+        <v>10796</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8940</v>
+        <v>8318</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>5301</v>
+        <v>5317</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>15888</v>
+        <v>15629</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>10057</v>
+        <v>9246</v>
       </c>
     </row>
     <row r="36">
@@ -2818,28 +2818,28 @@
         <v>0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5731</v>
+        <v>5091</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1772</v>
+        <v>1911</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>12175</v>
+        <v>12007</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>5216</v>
+        <v>5148</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2865</v>
+        <v>2885</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>25626</v>
+        <v>25291</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>12704</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="39">
@@ -2850,31 +2850,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>19710</v>
+        <v>17869</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>9908</v>
+        <v>10670</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>30540</v>
+        <v>29967</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>18758</v>
+        <v>17985</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>12845</v>
+        <v>13286</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>48249</v>
+        <v>47913</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>32170</v>
+        <v>31559</v>
       </c>
     </row>
     <row r="40">
